--- a/InvestingData.xlsx
+++ b/InvestingData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="336">
   <si>
     <t>aapl</t>
   </si>
@@ -742,6 +742,294 @@
   </si>
   <si>
     <t>2021-01-11 01:25:54.312</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:27.922</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:28.031</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:28.056</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:28.079</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:28.1</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:28.12</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:28.141</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:28.161</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:28.183</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:28.201</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:28.222</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:28.242</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:28.265</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:28.283</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:28.304</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:28.322</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:28.339</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:28.356</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:28.372</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:28.388</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:28.408</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:28.424</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:28.445</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:28.463</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:28.478</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:28.492</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:28.506</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:28.52</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:28.535</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:28.549</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:28.562</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:28.578</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:28.592</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:28.607</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:28.623</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:28.639</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:28.653</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:28.666</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:28.678</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:28.7</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:28.713</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:28.724</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:28.735</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:28.75</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:28.759</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:28.769</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:28.783</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:28.795</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:28.808</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:28.82</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:28.832</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:28.844</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:28.856</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:28.87</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:28.883</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:28.894</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:28.905</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:28.917</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:28.928</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:28.937</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:28.947</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:28.958</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:28.969</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:28.981</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:28.995</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:29.007</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:29.018</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:29.029</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:29.041</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:29.052</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:29.064</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:29.074</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:29.085</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:29.097</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:29.106</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:29.115</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:29.125</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:29.135</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:29.147</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:29.16</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:29.172</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:29.186</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:29.198</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:29.214</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:29.224</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:29.236</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:29.246</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:29.26</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:29.27</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:29.28</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:29.289</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:29.299</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:29.308</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:29.316</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:29.327</t>
+  </si>
+  <si>
+    <t>2021-01-11 01:33:29.337</t>
   </si>
 </sst>
 </file>
@@ -2555,7 +2843,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{541144C4-A731-4EED-9617-9A606B501EA9}">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
@@ -2867,6 +3155,774 @@
         <v>239</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>17</v>
+      </c>
+      <c r="B56" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>18</v>
+      </c>
+      <c r="B57" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>19</v>
+      </c>
+      <c r="B58" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>21</v>
+      </c>
+      <c r="B60" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>22</v>
+      </c>
+      <c r="B61" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>23</v>
+      </c>
+      <c r="B62" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>24</v>
+      </c>
+      <c r="B63" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>25</v>
+      </c>
+      <c r="B64" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>26</v>
+      </c>
+      <c r="B65" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>27</v>
+      </c>
+      <c r="B66" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>28</v>
+      </c>
+      <c r="B67" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>29</v>
+      </c>
+      <c r="B68" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>30</v>
+      </c>
+      <c r="B69" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>31</v>
+      </c>
+      <c r="B70" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>32</v>
+      </c>
+      <c r="B71" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>33</v>
+      </c>
+      <c r="B72" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>34</v>
+      </c>
+      <c r="B73" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>35</v>
+      </c>
+      <c r="B74" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>36</v>
+      </c>
+      <c r="B75" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>37</v>
+      </c>
+      <c r="B76" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>38</v>
+      </c>
+      <c r="B77" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>39</v>
+      </c>
+      <c r="B78" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>40</v>
+      </c>
+      <c r="B79" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>41</v>
+      </c>
+      <c r="B80" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>42</v>
+      </c>
+      <c r="B81" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>43</v>
+      </c>
+      <c r="B82" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>44</v>
+      </c>
+      <c r="B83" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>45</v>
+      </c>
+      <c r="B84" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>46</v>
+      </c>
+      <c r="B85" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>47</v>
+      </c>
+      <c r="B86" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>48</v>
+      </c>
+      <c r="B87" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>49</v>
+      </c>
+      <c r="B88" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>50</v>
+      </c>
+      <c r="B89" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>51</v>
+      </c>
+      <c r="B90" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>52</v>
+      </c>
+      <c r="B91" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>53</v>
+      </c>
+      <c r="B92" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>54</v>
+      </c>
+      <c r="B93" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>55</v>
+      </c>
+      <c r="B94" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>56</v>
+      </c>
+      <c r="B95" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>57</v>
+      </c>
+      <c r="B96" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>58</v>
+      </c>
+      <c r="B97" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>59</v>
+      </c>
+      <c r="B98" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>60</v>
+      </c>
+      <c r="B99" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>61</v>
+      </c>
+      <c r="B100" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>62</v>
+      </c>
+      <c r="B101" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>63</v>
+      </c>
+      <c r="B102" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>64</v>
+      </c>
+      <c r="B103" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>65</v>
+      </c>
+      <c r="B104" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>66</v>
+      </c>
+      <c r="B105" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>67</v>
+      </c>
+      <c r="B106" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>68</v>
+      </c>
+      <c r="B107" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>69</v>
+      </c>
+      <c r="B108" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>70</v>
+      </c>
+      <c r="B109" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>71</v>
+      </c>
+      <c r="B110" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>72</v>
+      </c>
+      <c r="B111" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>73</v>
+      </c>
+      <c r="B112" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>74</v>
+      </c>
+      <c r="B113" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>75</v>
+      </c>
+      <c r="B114" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>76</v>
+      </c>
+      <c r="B115" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>77</v>
+      </c>
+      <c r="B116" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>78</v>
+      </c>
+      <c r="B117" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>79</v>
+      </c>
+      <c r="B118" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>80</v>
+      </c>
+      <c r="B119" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>81</v>
+      </c>
+      <c r="B120" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>82</v>
+      </c>
+      <c r="B121" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>83</v>
+      </c>
+      <c r="B122" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>84</v>
+      </c>
+      <c r="B123" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>85</v>
+      </c>
+      <c r="B124" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>86</v>
+      </c>
+      <c r="B125" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>87</v>
+      </c>
+      <c r="B126" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>88</v>
+      </c>
+      <c r="B127" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>89</v>
+      </c>
+      <c r="B128" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>90</v>
+      </c>
+      <c r="B129" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>91</v>
+      </c>
+      <c r="B130" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>92</v>
+      </c>
+      <c r="B131" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>93</v>
+      </c>
+      <c r="B132" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>94</v>
+      </c>
+      <c r="B133" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>95</v>
+      </c>
+      <c r="B134" t="s">
+        <v>335</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/InvestingData.xlsx
+++ b/InvestingData.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{BBB29227-CBF2-4A25-ADE3-1B651A2DA073}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A7B52A85-0CAF-48BA-807F-E4946D2D9353}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="26010" windowHeight="16500" activeTab="1" xr2:uid="{907D592A-CE10-C04C-A832-FEB8F1E2EF97}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="26130" windowHeight="16500" activeTab="1" xr2:uid="{907D592A-CE10-C04C-A832-FEB8F1E2EF97}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Raw" sheetId="4" r:id="rId2"/>
+    <sheet name="Raw" sheetId="8" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <oleSize ref="A1:N16"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="392">
   <si>
     <t>aapl</t>
   </si>
@@ -315,9 +315,6 @@
     <t>KIRK</t>
   </si>
   <si>
-    <t>Company BarChart</t>
-  </si>
-  <si>
     <t>AMCIW</t>
   </si>
   <si>
@@ -615,421 +612,592 @@
     <t>PDD</t>
   </si>
   <si>
-    <t>Companies DAD 0</t>
-  </si>
-  <si>
-    <t>Companies DAD 1</t>
-  </si>
-  <si>
-    <t>Companies DAD 2</t>
-  </si>
-  <si>
-    <t>Companies DAD 3</t>
-  </si>
-  <si>
-    <t>compnay</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:25:53.696</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:25:53.814</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:25:53.849</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:25:53.87</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:25:53.889</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:25:53.906</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:25:53.924</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:25:53.941</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:25:53.975</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:25:53.992</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:25:54.007</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:25:54.02</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:25:54.038</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:25:54.05</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:25:54.062</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:25:54.076</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:25:54.092</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:25:54.105</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:25:54.116</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:25:54.126</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:25:54.137</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:25:54.147</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:25:54.157</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:25:54.167</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:25:54.179</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:25:54.194</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:25:54.203</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:25:54.218</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:25:54.228</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:25:54.237</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:25:54.247</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:25:54.257</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:25:54.267</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:25:54.276</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:25:54.287</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:25:54.301</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:25:54.312</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:27.922</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:28.031</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:28.056</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:28.079</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:28.1</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:28.12</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:28.141</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:28.161</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:28.183</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:28.201</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:28.222</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:28.242</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:28.265</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:28.283</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:28.304</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:28.322</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:28.339</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:28.356</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:28.372</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:28.388</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:28.408</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:28.424</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:28.445</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:28.463</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:28.478</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:28.492</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:28.506</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:28.52</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:28.535</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:28.549</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:28.562</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:28.578</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:28.592</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:28.607</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:28.623</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:28.639</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:28.653</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:28.666</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:28.678</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:28.7</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:28.713</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:28.724</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:28.735</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:28.75</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:28.759</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:28.769</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:28.783</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:28.795</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:28.808</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:28.82</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:28.832</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:28.844</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:28.856</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:28.87</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:28.883</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:28.894</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:28.905</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:28.917</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:28.928</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:28.937</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:28.947</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:28.958</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:28.969</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:28.981</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:28.995</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:29.007</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:29.018</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:29.029</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:29.041</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:29.052</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:29.064</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:29.074</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:29.085</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:29.097</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:29.106</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:29.115</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:29.125</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:29.135</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:29.147</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:29.16</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:29.172</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:29.186</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:29.198</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:29.214</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:29.224</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:29.236</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:29.246</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:29.26</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:29.27</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:29.28</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:29.289</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:29.299</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:29.308</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:29.316</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:29.327</t>
-  </si>
-  <si>
-    <t>2021-01-11 01:33:29.337</t>
+    <t>Companies</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Analyst</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:54.329</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:54.418</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:54.435</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:54.451</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:54.466</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:54.481</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:54.495</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:54.509</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:54.523</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:54.537</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:54.551</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:54.565</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:54.58</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:54.593</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:54.606</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:54.619</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:54.632</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:54.652</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:54.665</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:54.677</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:54.688</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:54.699</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:54.709</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:54.718</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:54.728</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:54.737</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:54.746</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:54.754</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:54.763</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:54.772</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:54.78</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:54.788</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:54.797</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:54.805</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:54.813</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:54.821</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:54.829</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:54.837</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:56.058</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:56.066</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:56.074</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:56.082</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:56.089</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:56.097</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:56.106</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:56.113</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:56.121</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:56.129</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:56.137</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:56.145</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:56.155</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:56.163</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:56.171</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:56.179</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:56.186</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:56.194</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:56.202</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:56.21</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:56.218</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:56.225</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:56.232</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:56.24</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:56.247</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:56.26</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:56.267</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:56.275</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:56.281</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:56.289</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:56.296</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:56.302</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:56.31</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:56.317</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:56.324</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:56.331</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:56.338</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:57.7</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:57.707</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:57.713</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:57.72</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:57.727</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:57.734</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:57.741</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:57.748</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:57.755</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:57.762</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:57.769</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:57.776</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:57.783</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:57.79</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:57.797</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:57.804</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:57.816</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:57.823</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:57.83</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:57.837</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:57.844</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:57.851</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:57.858</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:57.865</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:57.871</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:57.878</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:57.885</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:57.892</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:57.899</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:57.906</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:57.913</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:57.92</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:57.928</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:57.935</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:57.943</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:57.95</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:57.957</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:59.269</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:59.276</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:59.283</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:59.291</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:59.297</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:59.305</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:59.312</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:59.324</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:59.33</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:59.338</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:59.345</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:59.352</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:59.36</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:59.367</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:59.375</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:59.383</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:59.391</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:59.399</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:59.407</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:59.415</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:59.422</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:59.429</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:59.436</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:59.444</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:59.45</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:59.458</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:59.465</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:59.472</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:59.479</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:59.486</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:59.493</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:59.5</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:59.507</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:59.514</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:59.521</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:59.529</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:18:59.536</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:19:00.654</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:19:00.661</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:19:00.668</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:19:00.675</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:19:00.682</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:19:00.688</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:19:00.696</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:19:00.703</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:19:00.71</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:19:00.717</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:19:00.725</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:19:00.732</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:19:00.739</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:19:00.746</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:19:00.754</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:19:00.761</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:19:00.769</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:19:00.776</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:19:00.784</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:19:00.792</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:19:00.8</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:19:00.808</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:19:00.815</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:19:00.823</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:19:00.831</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:19:00.839</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:19:00.847</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:19:00.855</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:19:00.863</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:19:00.871</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:19:00.879</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:19:00.886</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:19:00.895</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:19:00.902</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:19:00.915</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:19:00.923</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:19:00.932</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:19:00.94</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:19:00.948</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:19:00.956</t>
+  </si>
+  <si>
+    <t>2021-01-11 13:19:00.964</t>
   </si>
 </sst>
 </file>
@@ -1407,10 +1575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C219C47-4466-8E4D-8299-1B5BDB2C1178}">
-  <dimension ref="A1:F103"/>
+  <dimension ref="A1:G198"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1422,1418 +1590,1911 @@
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>97</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>59</v>
+        <v>24</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="F2" s="3"/>
+        <v>177</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F3" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="F4" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>62</v>
+        <v>21</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="F5" s="3"/>
+        <v>144</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>33</v>
+      <c r="A6" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F6" s="3"/>
+        <v>134</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>34</v>
+        <v>3</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F7" s="3"/>
+        <v>143</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>35</v>
+        <v>2</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="F8" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>36</v>
+        <v>4</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F9" s="3"/>
+        <v>160</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>37</v>
+      <c r="A10" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F10" s="3"/>
+        <v>139</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F11" s="3"/>
+        <v>102</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>39</v>
+      <c r="A12" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="F12" s="3"/>
+        <v>156</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>11</v>
+      <c r="A13" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>70</v>
+        <v>25</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F13" s="3"/>
+        <v>152</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>12</v>
+      <c r="A14" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F14" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>72</v>
+        <v>26</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="E15" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>75</v>
-      </c>
       <c r="E18" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="F18" s="3"/>
+        <v>162</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="19" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="4" t="s">
+      <c r="E20" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>78</v>
-      </c>
       <c r="E21" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F21" s="3"/>
+        <v>150</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="22" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="F22" s="3"/>
+      <c r="E22" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="23" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>21</v>
+      <c r="A23" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="E24" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F24" s="3"/>
+        <v>108</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="25" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>82</v>
+      <c r="A25" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F25" s="3"/>
+        <v>195</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="26" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>53</v>
+        <v>12</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="F26" s="3"/>
+        <v>176</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="27" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>54</v>
+        <v>15</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="D27" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F28" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="29" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F29" s="3"/>
+        <v>107</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="30" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>28</v>
+      <c r="A30" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F30" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="31" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>88</v>
+        <v>11</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="F31" s="3"/>
+        <v>186</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="32" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4" t="s">
-        <v>89</v>
+      <c r="A32" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>178</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F32" s="3"/>
+        <v>131</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="33" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4" t="s">
-        <v>90</v>
+        <v>18</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F33" s="3"/>
+        <v>154</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="34" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="D34" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F34" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="35" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
+      <c r="A35" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="D35" s="4" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F35" s="3"/>
+        <v>123</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="36" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
+      <c r="A36" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="D36" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F36" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="37" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
+      <c r="A37" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="D37" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="F37" s="3"/>
+        <v>57</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="38" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="D38" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F38" s="3"/>
+        <v>59</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="39" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F39" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="40" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
-      <c r="E40" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="F40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="4" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="41" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>39</v>
+      <c r="A41" s="3" t="s">
+        <v>180</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
-      <c r="E41" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="4" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="42" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
-      <c r="E42" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="4" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="43" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
-      <c r="E43" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="44" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>42</v>
+      <c r="A44" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
-      <c r="E44" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="4" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="45" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>43</v>
+      <c r="A45" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
-      <c r="E45" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="46" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>44</v>
+      <c r="A46" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
-      <c r="E46" s="3" t="s">
-        <v>195</v>
-      </c>
+      <c r="E46" s="3"/>
       <c r="F46" s="3"/>
     </row>
     <row r="47" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>45</v>
+      <c r="A47" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
-      <c r="E47" s="3" t="s">
-        <v>128</v>
-      </c>
+      <c r="E47" s="3"/>
       <c r="F47" s="3"/>
     </row>
     <row r="48" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>46</v>
+      <c r="A48" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
-      <c r="E48" s="3" t="s">
-        <v>174</v>
-      </c>
+      <c r="E48" s="3"/>
       <c r="F48" s="3"/>
     </row>
     <row r="49" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
-      <c r="E49" s="3" t="s">
-        <v>96</v>
-      </c>
+      <c r="E49" s="3"/>
       <c r="F49" s="3"/>
     </row>
     <row r="50" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>48</v>
+      <c r="A50" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
-      <c r="E50" s="3" t="s">
-        <v>112</v>
-      </c>
+      <c r="E50" s="3"/>
       <c r="F50" s="3"/>
     </row>
     <row r="51" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
-      <c r="E51" s="3" t="s">
-        <v>152</v>
-      </c>
+      <c r="E51" s="3"/>
       <c r="F51" s="3"/>
     </row>
     <row r="52" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
-      <c r="E52" s="3" t="s">
-        <v>194</v>
-      </c>
+      <c r="E52" s="3"/>
       <c r="F52" s="3"/>
     </row>
     <row r="53" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
-      <c r="E53" s="3" t="s">
-        <v>179</v>
-      </c>
+      <c r="E53" s="3"/>
       <c r="F53" s="3"/>
     </row>
     <row r="54" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
-      <c r="E54" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="E54" s="3"/>
       <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
-      <c r="E55" s="3" t="s">
-        <v>178</v>
-      </c>
+      <c r="E55" s="3"/>
       <c r="F55" s="3"/>
     </row>
     <row r="56" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
-        <v>54</v>
+      <c r="A56" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
-      <c r="E56" s="3" t="s">
-        <v>145</v>
-      </c>
+      <c r="E56" s="3"/>
       <c r="F56" s="3"/>
     </row>
     <row r="57" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
-        <v>55</v>
+      <c r="A57" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
-      <c r="E57" s="3" t="s">
-        <v>135</v>
-      </c>
+      <c r="E57" s="3"/>
       <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
-      <c r="E58" s="3" t="s">
-        <v>144</v>
-      </c>
+      <c r="E58" s="3"/>
       <c r="F58" s="3"/>
     </row>
     <row r="59" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
-        <v>57</v>
+      <c r="A59" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
-      <c r="E59" s="3" t="s">
-        <v>161</v>
-      </c>
+      <c r="E59" s="3"/>
       <c r="F59" s="3"/>
     </row>
     <row r="60" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>58</v>
+      <c r="A60" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
-      <c r="E60" s="3" t="s">
-        <v>140</v>
-      </c>
+      <c r="E60" s="3"/>
       <c r="F60" s="3"/>
     </row>
     <row r="61" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
-      <c r="E61" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="E61" s="3"/>
       <c r="F61" s="3"/>
     </row>
     <row r="62" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
-        <v>60</v>
+      <c r="A62" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
-      <c r="E62" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="E62" s="3"/>
       <c r="F62" s="3"/>
     </row>
     <row r="63" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
-        <v>61</v>
+      <c r="A63" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
-      <c r="E63" s="3" t="s">
-        <v>153</v>
-      </c>
+      <c r="E63" s="3"/>
       <c r="F63" s="3"/>
     </row>
     <row r="64" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
-        <v>62</v>
+      <c r="A64" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
-      <c r="E64" s="3" t="s">
-        <v>149</v>
-      </c>
+      <c r="E64" s="3"/>
       <c r="F64" s="3"/>
     </row>
     <row r="65" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
-        <v>63</v>
+      <c r="A65" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
-      <c r="E65" s="3" t="s">
-        <v>163</v>
-      </c>
+      <c r="E65" s="3"/>
       <c r="F65" s="3"/>
     </row>
     <row r="66" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
-      <c r="E66" s="3" t="s">
-        <v>168</v>
-      </c>
+      <c r="E66" s="3"/>
       <c r="F66" s="3"/>
     </row>
     <row r="67" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
-      <c r="E67" s="3" t="s">
-        <v>151</v>
-      </c>
+      <c r="E67" s="3"/>
       <c r="F67" s="3"/>
     </row>
     <row r="68" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
-      <c r="E68" s="3" t="s">
-        <v>188</v>
-      </c>
+      <c r="E68" s="3"/>
       <c r="F68" s="3"/>
     </row>
     <row r="69" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
-        <v>67</v>
+      <c r="A69" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
-      <c r="E69" s="3" t="s">
-        <v>109</v>
-      </c>
+      <c r="E69" s="3"/>
       <c r="F69" s="3"/>
     </row>
     <row r="70" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
-      <c r="E70" s="3" t="s">
-        <v>196</v>
-      </c>
+      <c r="E70" s="3"/>
       <c r="F70" s="3"/>
     </row>
     <row r="71" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
-        <v>69</v>
+      <c r="A71" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
-      <c r="E71" s="3" t="s">
-        <v>177</v>
-      </c>
+      <c r="E71" s="3"/>
       <c r="F71" s="3"/>
     </row>
     <row r="72" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
-        <v>70</v>
+      <c r="A72" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
-      <c r="E72" s="3" t="s">
-        <v>189</v>
-      </c>
+      <c r="E72" s="3"/>
       <c r="F72" s="3"/>
     </row>
     <row r="73" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
-        <v>71</v>
+      <c r="A73" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
-      <c r="E73" s="3" t="s">
-        <v>108</v>
-      </c>
+      <c r="E73" s="3"/>
       <c r="F73" s="3"/>
     </row>
     <row r="74" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
-        <v>72</v>
+      <c r="A74" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
-      <c r="E74" s="3" t="s">
-        <v>187</v>
-      </c>
+      <c r="E74" s="3"/>
       <c r="F74" s="3"/>
     </row>
     <row r="75" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
-      <c r="E75" s="3" t="s">
-        <v>132</v>
-      </c>
+      <c r="E75" s="3"/>
       <c r="F75" s="3"/>
     </row>
     <row r="76" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
-      <c r="E76" s="3" t="s">
-        <v>155</v>
-      </c>
+      <c r="E76" s="3"/>
       <c r="F76" s="3"/>
     </row>
     <row r="77" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
-      <c r="E77" s="3" t="s">
-        <v>124</v>
-      </c>
+      <c r="E77" s="3"/>
       <c r="F77" s="3"/>
     </row>
     <row r="78" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
-        <v>76</v>
+      <c r="A78" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
-      <c r="E78" s="3" t="s">
-        <v>158</v>
-      </c>
+      <c r="E78" s="3"/>
       <c r="F78" s="3"/>
     </row>
     <row r="79" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
-        <v>77</v>
+      <c r="A79" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
-      <c r="E79" s="3" t="s">
-        <v>104</v>
-      </c>
+      <c r="E79" s="3"/>
       <c r="F79" s="3"/>
     </row>
     <row r="80" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
-        <v>78</v>
+      <c r="A80" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
-      <c r="E80" s="3" t="s">
-        <v>192</v>
-      </c>
+      <c r="E80" s="3"/>
       <c r="F80" s="3"/>
     </row>
     <row r="81" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
-        <v>79</v>
+      <c r="A81" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
-      <c r="E81" s="3" t="s">
-        <v>110</v>
-      </c>
+      <c r="E81" s="3"/>
       <c r="F81" s="3"/>
     </row>
     <row r="82" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
-      <c r="E82" s="3" t="s">
-        <v>121</v>
-      </c>
+      <c r="E82" s="3"/>
       <c r="F82" s="3"/>
     </row>
     <row r="83" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
-      <c r="E83" s="3" t="s">
-        <v>146</v>
-      </c>
+      <c r="E83" s="3"/>
       <c r="F83" s="3"/>
     </row>
     <row r="84" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
-      <c r="E84" s="3" t="s">
-        <v>131</v>
-      </c>
+      <c r="E84" s="3"/>
       <c r="F84" s="3"/>
     </row>
     <row r="85" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
-      <c r="E85" s="3" t="s">
-        <v>171</v>
-      </c>
+      <c r="E85" s="3"/>
       <c r="F85" s="3"/>
     </row>
     <row r="86" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
-      <c r="E86" s="3" t="s">
-        <v>117</v>
-      </c>
+      <c r="E86" s="3"/>
       <c r="F86" s="3"/>
     </row>
     <row r="87" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
-      <c r="E87" s="3" t="s">
-        <v>185</v>
-      </c>
+      <c r="E87" s="3"/>
       <c r="F87" s="3"/>
     </row>
     <row r="88" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
-      <c r="E88" s="3" t="s">
-        <v>141</v>
-      </c>
+      <c r="E88" s="3"/>
       <c r="F88" s="3"/>
     </row>
     <row r="89" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
-        <v>87</v>
+      <c r="A89" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
-      <c r="E89" s="3" t="s">
-        <v>150</v>
-      </c>
+      <c r="E89" s="3"/>
       <c r="F89" s="3"/>
     </row>
     <row r="90" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="s">
-        <v>88</v>
+      <c r="A90" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
-      <c r="E90" s="3" t="s">
-        <v>170</v>
-      </c>
+      <c r="E90" s="3"/>
       <c r="F90" s="3"/>
     </row>
     <row r="91" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="4" t="s">
-        <v>89</v>
+      <c r="A91" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
-      <c r="E91" s="3" t="s">
-        <v>130</v>
-      </c>
+      <c r="E91" s="3"/>
       <c r="F91" s="3"/>
     </row>
     <row r="92" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
-      <c r="E92" s="3" t="s">
-        <v>173</v>
-      </c>
+      <c r="E92" s="3"/>
       <c r="F92" s="3"/>
     </row>
     <row r="93" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
-      <c r="E93" s="3" t="s">
-        <v>167</v>
-      </c>
+      <c r="E93" s="3"/>
       <c r="F93" s="3"/>
     </row>
     <row r="94" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="4" t="s">
-        <v>92</v>
+      <c r="A94" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
-      <c r="E94" s="3" t="s">
-        <v>169</v>
-      </c>
+      <c r="E94" s="3"/>
       <c r="F94" s="3"/>
     </row>
     <row r="95" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="s">
-        <v>93</v>
+      <c r="A95" s="3" t="s">
+        <v>173</v>
       </c>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
-      <c r="E95" s="3" t="s">
-        <v>101</v>
-      </c>
+      <c r="E95" s="3"/>
       <c r="F95" s="3"/>
     </row>
     <row r="96" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
-      <c r="E96" s="3" t="s">
-        <v>107</v>
-      </c>
+      <c r="E96" s="3"/>
       <c r="F96" s="3"/>
     </row>
     <row r="97" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
-      <c r="E97" s="3" t="s">
-        <v>186</v>
-      </c>
+      <c r="E97" s="3"/>
       <c r="F97" s="3"/>
     </row>
     <row r="98" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="4"/>
+      <c r="A98" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
-      <c r="E98" s="3" t="s">
-        <v>183</v>
-      </c>
+      <c r="E98" s="3"/>
       <c r="F98" s="3"/>
     </row>
     <row r="99" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="4"/>
+      <c r="A99" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
-      <c r="E99" s="3" t="s">
-        <v>111</v>
-      </c>
+      <c r="E99" s="3"/>
       <c r="F99" s="3"/>
     </row>
     <row r="100" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="4"/>
+      <c r="A100" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
-      <c r="E100" s="3" t="s">
-        <v>184</v>
-      </c>
+      <c r="E100" s="3"/>
       <c r="F100" s="3"/>
     </row>
     <row r="101" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="4"/>
+      <c r="A101" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
-      <c r="E101" s="3" t="s">
-        <v>191</v>
-      </c>
+      <c r="E101" s="3"/>
       <c r="F101" s="3"/>
     </row>
     <row r="102" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="4"/>
+      <c r="A102" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25"/>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E97">
-    <sortCondition ref="E2"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A197">
+    <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2842,1089 +3503,3101 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{541144C4-A731-4EED-9617-9A606B501EA9}">
-  <dimension ref="A1:B134"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{062577B9-BC75-4F62-B82C-C19CC3B96754}">
+  <dimension ref="A1:E191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E1" t="s">
         <v>201</v>
-      </c>
-      <c r="B1" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" t="s">
-        <v>203</v>
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>129.8386993408203</v>
+      </c>
+      <c r="C2" t="n">
+        <v>129.83999633789062</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0012969970703125</v>
+      </c>
+      <c r="E2" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" t="s">
-        <v>204</v>
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>111.08809661865234</v>
+      </c>
+      <c r="C3" t="n">
+        <v>121.47000122070312</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.381904602050781</v>
+      </c>
+      <c r="E3" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" t="s">
-        <v>205</v>
+        <v>8</v>
+      </c>
+      <c r="B4" t="n">
+        <v>61.09000015258789</v>
+      </c>
+      <c r="C4" t="n">
+        <v>57.400001525878906</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-3.6899986267089844</v>
+      </c>
+      <c r="E4" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" t="s">
-        <v>206</v>
+        <v>7</v>
+      </c>
+      <c r="B5" t="n">
+        <v>52.220001220703125</v>
+      </c>
+      <c r="C5" t="n">
+        <v>54.91999816894531</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.6999969482421875</v>
+      </c>
+      <c r="E5" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" t="s">
-        <v>207</v>
+        <v>189</v>
+      </c>
+      <c r="B6" t="n">
+        <v>37.09000015258789</v>
+      </c>
+      <c r="C6" t="n">
+        <v>44.439998626708984</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.349998474121094</v>
+      </c>
+      <c r="E6" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" t="s">
-        <v>208</v>
+        <v>3</v>
+      </c>
+      <c r="B7" t="n">
+        <v>178.6699981689453</v>
+      </c>
+      <c r="C7" t="n">
+        <v>116.80000305175781</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-61.8699951171875</v>
+      </c>
+      <c r="E7" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" t="s">
-        <v>209</v>
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>50.20000076293945</v>
+      </c>
+      <c r="C8" t="n">
+        <v>56.400001525878906</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6.200000762939453</v>
+      </c>
+      <c r="E8" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" t="s">
-        <v>210</v>
+        <v>4</v>
+      </c>
+      <c r="B9" t="n">
+        <v>109.58000183105469</v>
+      </c>
+      <c r="C9" t="n">
+        <v>121.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>11.419998168945312</v>
+      </c>
+      <c r="E9" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" t="s">
-        <v>211</v>
+        <v>97</v>
+      </c>
+      <c r="E10" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" t="s">
-        <v>212</v>
+        <v>5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>238.38999938964844</v>
+      </c>
+      <c r="C11" t="n">
+        <v>255.55999755859375</v>
+      </c>
+      <c r="D11" t="n">
+        <v>17.169998168945312</v>
+      </c>
+      <c r="E11" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" t="s">
-        <v>213</v>
+        <v>165</v>
+      </c>
+      <c r="B12" t="n">
+        <v>59.18000030517578</v>
+      </c>
+      <c r="C12" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-10.180000305175781</v>
+      </c>
+      <c r="E12" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" t="s">
-        <v>214</v>
+        <v>181</v>
+      </c>
+      <c r="B13" t="n">
+        <v>9.079999923706055</v>
+      </c>
+      <c r="C13" t="n">
+        <v>7.559999942779541</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-1.5199999809265137</v>
+      </c>
+      <c r="E13" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" t="s">
-        <v>215</v>
+        <v>135</v>
+      </c>
+      <c r="B14" t="n">
+        <v>29.440000534057617</v>
+      </c>
+      <c r="C14" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-10.940000534057617</v>
+      </c>
+      <c r="E14" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" t="s">
-        <v>216</v>
+        <v>6</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2.569999933242798</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.06999993324279785</v>
+      </c>
+      <c r="E15" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" t="s">
-        <v>217</v>
+        <v>137</v>
+      </c>
+      <c r="E16" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" t="s">
-        <v>218</v>
+        <v>141</v>
+      </c>
+      <c r="B17" t="n">
+        <v>69.2300033569336</v>
+      </c>
+      <c r="C17" t="n">
+        <v>96.2300033569336</v>
+      </c>
+      <c r="D17" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" t="s">
-        <v>219</v>
+        <v>125</v>
+      </c>
+      <c r="B18" t="n">
+        <v>27.410400390625</v>
+      </c>
+      <c r="C18" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-13.410400390625</v>
+      </c>
+      <c r="E18" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" t="s">
-        <v>220</v>
+        <v>94</v>
+      </c>
+      <c r="B19" t="n">
+        <v>5.505000114440918</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3.9200000762939453</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-1.5850000381469727</v>
+      </c>
+      <c r="E19" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" t="s">
-        <v>221</v>
+        <v>121</v>
+      </c>
+      <c r="B20" t="n">
+        <v>6.059999942779541</v>
+      </c>
+      <c r="C20" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.940000057220459</v>
+      </c>
+      <c r="E20" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" t="s">
-        <v>222</v>
+        <v>153</v>
+      </c>
+      <c r="B21" t="n">
+        <v>48.650001525878906</v>
+      </c>
+      <c r="C21" t="n">
+        <v>39.83000183105469</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-8.819999694824219</v>
+      </c>
+      <c r="E21" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" t="s">
-        <v>223</v>
+        <v>10</v>
+      </c>
+      <c r="B22" t="n">
+        <v>33.04499816894531</v>
+      </c>
+      <c r="C22" t="n">
+        <v>32.380001068115234</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-0.6649971008300781</v>
+      </c>
+      <c r="E22" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23" t="s">
-        <v>224</v>
+        <v>136</v>
+      </c>
+      <c r="B23" t="n">
+        <v>96.54499816894531</v>
+      </c>
+      <c r="C23" t="n">
+        <v>59.20000076293945</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-37.34499740600586</v>
+      </c>
+      <c r="E23" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>81</v>
-      </c>
-      <c r="B24" t="s">
-        <v>225</v>
+        <v>113</v>
+      </c>
+      <c r="B24" t="n">
+        <v>75.01000213623047</v>
+      </c>
+      <c r="C24" t="n">
+        <v>48.33000183105469</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-26.68000030517578</v>
+      </c>
+      <c r="E24" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>82</v>
-      </c>
-      <c r="B25" t="s">
-        <v>226</v>
+        <v>101</v>
+      </c>
+      <c r="E25" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>83</v>
-      </c>
-      <c r="B26" t="s">
-        <v>227</v>
+        <v>12</v>
+      </c>
+      <c r="E26" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>84</v>
-      </c>
-      <c r="B27" t="s">
-        <v>228</v>
+        <v>15</v>
+      </c>
+      <c r="B27" t="n">
+        <v>38.779998779296875</v>
+      </c>
+      <c r="C27" t="n">
+        <v>37.27000045776367</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-1.5099983215332031</v>
+      </c>
+      <c r="E27" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>85</v>
-      </c>
-      <c r="B28" t="s">
-        <v>229</v>
+        <v>13</v>
+      </c>
+      <c r="B28" t="n">
+        <v>71.53050231933594</v>
+      </c>
+      <c r="C28" t="n">
+        <v>65.37000274658203</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-6.160499572753906</v>
+      </c>
+      <c r="E28" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>86</v>
-      </c>
-      <c r="B29" t="s">
-        <v>230</v>
+        <v>14</v>
+      </c>
+      <c r="B29" t="n">
+        <v>272.9549865722656</v>
+      </c>
+      <c r="C29" t="n">
+        <v>290.4800109863281</v>
+      </c>
+      <c r="D29" t="n">
+        <v>17.5250244140625</v>
+      </c>
+      <c r="E29" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>87</v>
-      </c>
-      <c r="B30" t="s">
-        <v>231</v>
+        <v>126</v>
+      </c>
+      <c r="B30" t="n">
+        <v>113.07499694824219</v>
+      </c>
+      <c r="C30" t="n">
+        <v>72.18000030517578</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-40.894996643066406</v>
+      </c>
+      <c r="E30" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>88</v>
-      </c>
-      <c r="B31" t="s">
-        <v>232</v>
+        <v>11</v>
+      </c>
+      <c r="B31" t="n">
+        <v>45.43000030517578</v>
+      </c>
+      <c r="C31" t="n">
+        <v>47.40999984741211</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.9799995422363281</v>
+      </c>
+      <c r="E31" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>89</v>
-      </c>
-      <c r="B32" t="s">
-        <v>233</v>
+        <v>164</v>
+      </c>
+      <c r="B32" t="n">
+        <v>49.91109848022461</v>
+      </c>
+      <c r="C32" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-34.91109848022461</v>
+      </c>
+      <c r="E32" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>90</v>
-      </c>
-      <c r="B33" t="s">
-        <v>234</v>
+        <v>18</v>
+      </c>
+      <c r="B33" t="n">
+        <v>194.1300048828125</v>
+      </c>
+      <c r="C33" t="n">
+        <v>175.47000122070312</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-18.660003662109375</v>
+      </c>
+      <c r="E33" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>91</v>
-      </c>
-      <c r="B34" t="s">
-        <v>235</v>
+        <v>19</v>
+      </c>
+      <c r="B34" t="n">
+        <v>137.05499267578125</v>
+      </c>
+      <c r="C34" t="n">
+        <v>137.41000366210938</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.355010986328125</v>
+      </c>
+      <c r="E34" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>92</v>
-      </c>
-      <c r="B35" t="s">
-        <v>236</v>
+        <v>99</v>
+      </c>
+      <c r="B35" t="n">
+        <v>56.86000061035156</v>
+      </c>
+      <c r="C35" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-21.860000610351562</v>
+      </c>
+      <c r="E35" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>93</v>
-      </c>
-      <c r="B36" t="s">
-        <v>237</v>
+        <v>174</v>
+      </c>
+      <c r="B36" t="n">
+        <v>18.385000228881836</v>
+      </c>
+      <c r="C36" t="n">
+        <v>12.369999885559082</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-6.015000343322754</v>
+      </c>
+      <c r="E36" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>94</v>
-      </c>
-      <c r="B37" t="s">
-        <v>238</v>
+        <v>124</v>
+      </c>
+      <c r="B37" t="n">
+        <v>37.6349983215332</v>
+      </c>
+      <c r="C37" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-13.634998321533203</v>
+      </c>
+      <c r="E37" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>95</v>
-      </c>
-      <c r="B38" t="s">
-        <v>239</v>
+        <v>16</v>
+      </c>
+      <c r="B38" t="n">
+        <v>88.3499984741211</v>
+      </c>
+      <c r="C38" t="n">
+        <v>98.97000122070312</v>
+      </c>
+      <c r="D38" t="n">
+        <v>10.620002746582031</v>
+      </c>
+      <c r="E38" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" t="s">
-        <v>240</v>
+        <v>22</v>
+      </c>
+      <c r="B39" t="n">
+        <v>51.14500045776367</v>
+      </c>
+      <c r="C39" t="n">
+        <v>54.16999816894531</v>
+      </c>
+      <c r="D39" t="n">
+        <v>3.0249977111816406</v>
+      </c>
+      <c r="E39" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>2</v>
-      </c>
-      <c r="B40" t="s">
-        <v>241</v>
+        <v>24</v>
+      </c>
+      <c r="B40" t="n">
+        <v>238.2100067138672</v>
+      </c>
+      <c r="C40" t="n">
+        <v>247.27000427246094</v>
+      </c>
+      <c r="D40" t="n">
+        <v>9.05999755859375</v>
+      </c>
+      <c r="E40" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41" t="s">
-        <v>242</v>
+        <v>180</v>
+      </c>
+      <c r="B41" t="n">
+        <v>14.025099754333496</v>
+      </c>
+      <c r="C41" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1.974900245666504</v>
+      </c>
+      <c r="E41" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" t="s">
-        <v>243</v>
+        <v>17</v>
+      </c>
+      <c r="B42" t="n">
+        <v>108.86000061035156</v>
+      </c>
+      <c r="C42" t="n">
+        <v>113.31999969482422</v>
+      </c>
+      <c r="D42" t="n">
+        <v>4.459999084472656</v>
+      </c>
+      <c r="E42" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" t="s">
-        <v>244</v>
+        <v>21</v>
+      </c>
+      <c r="B43" t="n">
+        <v>42.07500076293945</v>
+      </c>
+      <c r="C43" t="n">
+        <v>45.86000061035156</v>
+      </c>
+      <c r="D43" t="n">
+        <v>3.7849998474121094</v>
+      </c>
+      <c r="E43" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44" t="s">
-        <v>245</v>
+        <v>119</v>
+      </c>
+      <c r="B44" t="n">
+        <v>13.140000343322754</v>
+      </c>
+      <c r="C44" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-3.140000343322754</v>
+      </c>
+      <c r="E44" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" t="s">
-        <v>246</v>
+        <v>133</v>
+      </c>
+      <c r="B45" t="n">
+        <v>17.954999923706055</v>
+      </c>
+      <c r="C45" t="n">
+        <v>26.25</v>
+      </c>
+      <c r="D45" t="n">
+        <v>8.295000076293945</v>
+      </c>
+      <c r="E45" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>7</v>
-      </c>
-      <c r="B46" t="s">
-        <v>247</v>
+        <v>142</v>
+      </c>
+      <c r="B46" t="n">
+        <v>100.69000244140625</v>
+      </c>
+      <c r="C46" t="n">
+        <v>94.19999694824219</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-6.4900054931640625</v>
+      </c>
+      <c r="E46" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>8</v>
-      </c>
-      <c r="B47" t="s">
-        <v>248</v>
+        <v>161</v>
+      </c>
+      <c r="B47" t="n">
+        <v>190.30189514160156</v>
+      </c>
+      <c r="C47" t="n">
+        <v>144.05999755859375</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-46.24189758300781</v>
+      </c>
+      <c r="E47" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>9</v>
-      </c>
-      <c r="B48" t="s">
-        <v>249</v>
+        <v>155</v>
+      </c>
+      <c r="B48" t="n">
+        <v>233.67579650878906</v>
+      </c>
+      <c r="C48" t="n">
+        <v>198.3699951171875</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-35.30580139160156</v>
+      </c>
+      <c r="E48" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" t="s">
-        <v>250</v>
+        <v>20</v>
+      </c>
+      <c r="B49" t="n">
+        <v>45.79499816894531</v>
+      </c>
+      <c r="C49" t="n">
+        <v>48.27000045776367</v>
+      </c>
+      <c r="D49" t="n">
+        <v>2.4750022888183594</v>
+      </c>
+      <c r="E49" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>11</v>
-      </c>
-      <c r="B50" t="s">
-        <v>251</v>
+        <v>171</v>
+      </c>
+      <c r="E50" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>12</v>
-      </c>
-      <c r="B51" t="s">
-        <v>252</v>
+        <v>25</v>
+      </c>
+      <c r="B51" t="n">
+        <v>76.23159790039062</v>
+      </c>
+      <c r="C51" t="n">
+        <v>83.77999877929688</v>
+      </c>
+      <c r="D51" t="n">
+        <v>7.54840087890625</v>
+      </c>
+      <c r="E51" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>13</v>
-      </c>
-      <c r="B52" t="s">
-        <v>253</v>
+        <v>27</v>
+      </c>
+      <c r="B52" t="n">
+        <v>39.68000030517578</v>
+      </c>
+      <c r="C52" t="n">
+        <v>43.47999954223633</v>
+      </c>
+      <c r="D52" t="n">
+        <v>3.799999237060547</v>
+      </c>
+      <c r="E52" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>14</v>
-      </c>
-      <c r="B53" t="s">
-        <v>254</v>
+        <v>26</v>
+      </c>
+      <c r="B53" t="n">
+        <v>294.7799987792969</v>
+      </c>
+      <c r="C53" t="n">
+        <v>287.3500061035156</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-7.42999267578125</v>
+      </c>
+      <c r="E53" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>15</v>
-      </c>
-      <c r="B54" t="s">
-        <v>255</v>
+        <v>90</v>
+      </c>
+      <c r="B54" t="n">
+        <v>179.3300018310547</v>
+      </c>
+      <c r="C54" t="n">
+        <v>179.60000610351562</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.2700042724609375</v>
+      </c>
+      <c r="E54" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>16</v>
-      </c>
-      <c r="B55" t="s">
-        <v>256</v>
+        <v>28</v>
+      </c>
+      <c r="B55" t="n">
+        <v>130.82000732421875</v>
+      </c>
+      <c r="C55" t="n">
+        <v>165.36000061035156</v>
+      </c>
+      <c r="D55" t="n">
+        <v>34.53999328613281</v>
+      </c>
+      <c r="E55" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>17</v>
-      </c>
-      <c r="B56" t="s">
-        <v>257</v>
+        <v>179</v>
+      </c>
+      <c r="B56" t="n">
+        <v>77.07499694824219</v>
+      </c>
+      <c r="C56" t="n">
+        <v>65.5999984741211</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-11.474998474121094</v>
+      </c>
+      <c r="E56" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>18</v>
-      </c>
-      <c r="B57" t="s">
-        <v>258</v>
+        <v>122</v>
+      </c>
+      <c r="B57" t="n">
+        <v>16.709999084472656</v>
+      </c>
+      <c r="C57" t="n">
+        <v>19.6299991607666</v>
+      </c>
+      <c r="D57" t="n">
+        <v>2.9200000762939453</v>
+      </c>
+      <c r="E57" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>19</v>
-      </c>
-      <c r="B58" t="s">
-        <v>259</v>
+        <v>69</v>
+      </c>
+      <c r="B58" t="n">
+        <v>76.9000015258789</v>
+      </c>
+      <c r="C58" t="n">
+        <v>52.90999984741211</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-23.990001678466797</v>
+      </c>
+      <c r="E58" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>20</v>
-      </c>
-      <c r="B59" t="s">
-        <v>260</v>
+        <v>117</v>
+      </c>
+      <c r="B59" t="n">
+        <v>208.08999633789062</v>
+      </c>
+      <c r="C59" t="n">
+        <v>154.25</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-53.839996337890625</v>
+      </c>
+      <c r="E59" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>21</v>
-      </c>
-      <c r="B60" t="s">
-        <v>261</v>
+        <v>112</v>
+      </c>
+      <c r="B60" t="n">
+        <v>127.2699966430664</v>
+      </c>
+      <c r="C60" t="n">
+        <v>124.83999633789062</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-2.4300003051757812</v>
+      </c>
+      <c r="E60" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>22</v>
-      </c>
-      <c r="B61" t="s">
-        <v>262</v>
+        <v>29</v>
+      </c>
+      <c r="B61" t="n">
+        <v>185.4199981689453</v>
+      </c>
+      <c r="C61" t="n">
+        <v>167.7100067138672</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-17.709991455078125</v>
+      </c>
+      <c r="E61" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>23</v>
-      </c>
-      <c r="B62" t="s">
-        <v>263</v>
+        <v>192</v>
+      </c>
+      <c r="E62" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>24</v>
-      </c>
-      <c r="B63" t="s">
-        <v>264</v>
+        <v>132</v>
+      </c>
+      <c r="B63" t="n">
+        <v>76.62999725341797</v>
+      </c>
+      <c r="C63" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-25.12999725341797</v>
+      </c>
+      <c r="E63" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>25</v>
-      </c>
-      <c r="B64" t="s">
-        <v>265</v>
+        <v>114</v>
+      </c>
+      <c r="B64" t="n">
+        <v>111.95999908447266</v>
+      </c>
+      <c r="C64" t="n">
+        <v>81.75</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-30.209999084472656</v>
+      </c>
+      <c r="E64" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>26</v>
-      </c>
-      <c r="B65" t="s">
-        <v>266</v>
+        <v>159</v>
+      </c>
+      <c r="B65" t="n">
+        <v>244.22999572753906</v>
+      </c>
+      <c r="C65" t="n">
+        <v>325.07000732421875</v>
+      </c>
+      <c r="D65" t="n">
+        <v>80.84001159667969</v>
+      </c>
+      <c r="E65" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>27</v>
-      </c>
-      <c r="B66" t="s">
-        <v>267</v>
+        <v>31</v>
+      </c>
+      <c r="B66" t="n">
+        <v>31.454999923706055</v>
+      </c>
+      <c r="C66" t="n">
+        <v>31.68000030517578</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.22500038146972656</v>
+      </c>
+      <c r="E66" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>28</v>
-      </c>
-      <c r="B67" t="s">
-        <v>268</v>
+        <v>32</v>
+      </c>
+      <c r="B67" t="n">
+        <v>45.65999984741211</v>
+      </c>
+      <c r="C67" t="n">
+        <v>44.13999938964844</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-1.5200004577636719</v>
+      </c>
+      <c r="E67" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>29</v>
-      </c>
-      <c r="B68" t="s">
-        <v>269</v>
+        <v>34</v>
+      </c>
+      <c r="B68" t="n">
+        <v>63.189998626708984</v>
+      </c>
+      <c r="C68" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-0.6899986267089844</v>
+      </c>
+      <c r="E68" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>30</v>
-      </c>
-      <c r="B69" t="s">
-        <v>270</v>
+        <v>118</v>
+      </c>
+      <c r="B69" t="n">
+        <v>17.420000076293945</v>
+      </c>
+      <c r="C69" t="n">
+        <v>16.1299991607666</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-1.2900009155273438</v>
+      </c>
+      <c r="E69" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>31</v>
-      </c>
-      <c r="B70" t="s">
-        <v>271</v>
+        <v>33</v>
+      </c>
+      <c r="E70" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>32</v>
-      </c>
-      <c r="B71" t="s">
-        <v>272</v>
+        <v>158</v>
+      </c>
+      <c r="B71" t="n">
+        <v>59.880001068115234</v>
+      </c>
+      <c r="C71" t="n">
+        <v>56.060001373291016</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-3.8199996948242188</v>
+      </c>
+      <c r="E71" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>33</v>
-      </c>
-      <c r="B72" t="s">
-        <v>273</v>
+        <v>163</v>
+      </c>
+      <c r="B72" t="n">
+        <v>63.63909912109375</v>
+      </c>
+      <c r="C72" t="n">
+        <v>54.09000015258789</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-9.54909896850586</v>
+      </c>
+      <c r="E72" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>34</v>
-      </c>
-      <c r="B73" t="s">
-        <v>274</v>
+        <v>128</v>
+      </c>
+      <c r="B73" t="n">
+        <v>234.80999755859375</v>
+      </c>
+      <c r="C73" t="n">
+        <v>184.55999755859375</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-50.25</v>
+      </c>
+      <c r="E73" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>35</v>
-      </c>
-      <c r="B74" t="s">
-        <v>275</v>
+        <v>104</v>
+      </c>
+      <c r="B74" t="n">
+        <v>63.21500015258789</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72.3499984741211</v>
+      </c>
+      <c r="D74" t="n">
+        <v>9.134998321533203</v>
+      </c>
+      <c r="E74" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
         <v>36</v>
       </c>
-      <c r="B75" t="s">
-        <v>276</v>
+      <c r="B75" t="n">
+        <v>37.18000030517578</v>
+      </c>
+      <c r="C75" t="n">
+        <v>37.59000015258789</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.4099998474121094</v>
+      </c>
+      <c r="E75" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>37</v>
-      </c>
-      <c r="B76" t="s">
-        <v>277</v>
+        <v>23</v>
+      </c>
+      <c r="B76" t="n">
+        <v>45.04610061645508</v>
+      </c>
+      <c r="C76" t="n">
+        <v>49.66999816894531</v>
+      </c>
+      <c r="D76" t="n">
+        <v>4.623897552490234</v>
+      </c>
+      <c r="E76" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>38</v>
-      </c>
-      <c r="B77" t="s">
-        <v>278</v>
+        <v>175</v>
+      </c>
+      <c r="E77" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>39</v>
-      </c>
-      <c r="B78" t="s">
-        <v>279</v>
+        <v>146</v>
+      </c>
+      <c r="E78" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>40</v>
-      </c>
-      <c r="B79" t="s">
-        <v>280</v>
+        <v>115</v>
+      </c>
+      <c r="E79" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>41</v>
-      </c>
-      <c r="B80" t="s">
-        <v>281</v>
+        <v>105</v>
+      </c>
+      <c r="B80" t="n">
+        <v>52.584999084472656</v>
+      </c>
+      <c r="C80" t="n">
+        <v>36.290000915527344</v>
+      </c>
+      <c r="D80" t="n">
+        <v>-16.294998168945312</v>
+      </c>
+      <c r="E80" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>42</v>
-      </c>
-      <c r="B81" t="s">
-        <v>282</v>
+        <v>37</v>
+      </c>
+      <c r="B81" t="n">
+        <v>294.6300048828125</v>
+      </c>
+      <c r="C81" t="n">
+        <v>296.0199890136719</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1.389984130859375</v>
+      </c>
+      <c r="E81" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>43</v>
-      </c>
-      <c r="B82" t="s">
-        <v>283</v>
+        <v>38</v>
+      </c>
+      <c r="B82" t="n">
+        <v>11.279999732971191</v>
+      </c>
+      <c r="C82" t="n">
+        <v>12.109999656677246</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.8299999237060547</v>
+      </c>
+      <c r="E82" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>44</v>
-      </c>
-      <c r="B83" t="s">
-        <v>284</v>
+        <v>39</v>
+      </c>
+      <c r="B83" t="n">
+        <v>20.479999542236328</v>
+      </c>
+      <c r="C83" t="n">
+        <v>19.559999465942383</v>
+      </c>
+      <c r="D83" t="n">
+        <v>-0.9200000762939453</v>
+      </c>
+      <c r="E83" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>45</v>
-      </c>
-      <c r="B84" t="s">
-        <v>285</v>
+        <v>40</v>
+      </c>
+      <c r="B84" t="n">
+        <v>25.84000015258789</v>
+      </c>
+      <c r="C84" t="n">
+        <v>29.770000457763672</v>
+      </c>
+      <c r="D84" t="n">
+        <v>3.9300003051757812</v>
+      </c>
+      <c r="E84" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>46</v>
-      </c>
-      <c r="B85" t="s">
-        <v>286</v>
+        <v>41</v>
+      </c>
+      <c r="B85" t="n">
+        <v>28.21500015258789</v>
+      </c>
+      <c r="C85" t="n">
+        <v>35.13999938964844</v>
+      </c>
+      <c r="D85" t="n">
+        <v>6.924999237060547</v>
+      </c>
+      <c r="E85" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>47</v>
-      </c>
-      <c r="B86" t="s">
-        <v>287</v>
+        <v>42</v>
+      </c>
+      <c r="B86" t="n">
+        <v>27.482500076293945</v>
+      </c>
+      <c r="C86" t="n">
+        <v>27.079999923706055</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-0.4025001525878906</v>
+      </c>
+      <c r="E86" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>48</v>
-      </c>
-      <c r="B87" t="s">
-        <v>288</v>
+        <v>44</v>
+      </c>
+      <c r="B87" t="n">
+        <v>129.33999633789062</v>
+      </c>
+      <c r="C87" t="n">
+        <v>137.1300048828125</v>
+      </c>
+      <c r="D87" t="n">
+        <v>7.790008544921875</v>
+      </c>
+      <c r="E87" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>49</v>
-      </c>
-      <c r="B88" t="s">
-        <v>289</v>
+        <v>147</v>
+      </c>
+      <c r="B88" t="n">
+        <v>22.764999389648438</v>
+      </c>
+      <c r="C88" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>-9.764999389648438</v>
+      </c>
+      <c r="E88" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>50</v>
-      </c>
-      <c r="B89" t="s">
-        <v>290</v>
+        <v>138</v>
+      </c>
+      <c r="B89" t="n">
+        <v>57.11000061035156</v>
+      </c>
+      <c r="C89" t="n">
+        <v>54.41999816894531</v>
+      </c>
+      <c r="D89" t="n">
+        <v>-2.69000244140625</v>
+      </c>
+      <c r="E89" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>51</v>
-      </c>
-      <c r="B90" t="s">
-        <v>291</v>
+        <v>194</v>
+      </c>
+      <c r="B90" t="n">
+        <v>6.289999961853027</v>
+      </c>
+      <c r="C90" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>-1.2899999618530273</v>
+      </c>
+      <c r="E90" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>52</v>
-      </c>
-      <c r="B91" t="s">
-        <v>292</v>
+        <v>43</v>
+      </c>
+      <c r="B91" t="n">
+        <v>51.79999923706055</v>
+      </c>
+      <c r="C91" t="n">
+        <v>52.04999923706055</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E91" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>53</v>
-      </c>
-      <c r="B92" t="s">
-        <v>293</v>
+        <v>45</v>
+      </c>
+      <c r="B92" t="n">
+        <v>52.33000183105469</v>
+      </c>
+      <c r="C92" t="n">
+        <v>52.18000030517578</v>
+      </c>
+      <c r="D92" t="n">
+        <v>-0.15000152587890625</v>
+      </c>
+      <c r="E92" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>54</v>
-      </c>
-      <c r="B93" t="s">
-        <v>294</v>
+        <v>127</v>
+      </c>
+      <c r="E93" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>55</v>
-      </c>
-      <c r="B94" t="s">
-        <v>295</v>
+        <v>173</v>
+      </c>
+      <c r="B94" t="n">
+        <v>44.84000015258789</v>
+      </c>
+      <c r="C94" t="n">
+        <v>51.150001525878906</v>
+      </c>
+      <c r="D94" t="n">
+        <v>6.310001373291016</v>
+      </c>
+      <c r="E94" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>56</v>
-      </c>
-      <c r="B95" t="s">
-        <v>296</v>
+        <v>46</v>
+      </c>
+      <c r="B95" t="n">
+        <v>160.63499450683594</v>
+      </c>
+      <c r="C95" t="n">
+        <v>167.41000366210938</v>
+      </c>
+      <c r="D95" t="n">
+        <v>6.7750091552734375</v>
+      </c>
+      <c r="E95" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>57</v>
-      </c>
-      <c r="B96" t="s">
-        <v>297</v>
+        <v>47</v>
+      </c>
+      <c r="B96" t="n">
+        <v>23.895000457763672</v>
+      </c>
+      <c r="C96" t="n">
+        <v>24.3799991607666</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.4849987030029297</v>
+      </c>
+      <c r="E96" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>58</v>
-      </c>
-      <c r="B97" t="s">
-        <v>298</v>
+        <v>49</v>
+      </c>
+      <c r="B97" t="n">
+        <v>137.58900451660156</v>
+      </c>
+      <c r="C97" t="n">
+        <v>134.72000122070312</v>
+      </c>
+      <c r="D97" t="n">
+        <v>-2.8690032958984375</v>
+      </c>
+      <c r="E97" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>59</v>
-      </c>
-      <c r="B98" t="s">
-        <v>299</v>
+        <v>48</v>
+      </c>
+      <c r="B98" t="n">
+        <v>18.485000610351562</v>
+      </c>
+      <c r="C98" t="n">
+        <v>17.639999389648438</v>
+      </c>
+      <c r="D98" t="n">
+        <v>-0.845001220703125</v>
+      </c>
+      <c r="E98" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>60</v>
-      </c>
-      <c r="B99" t="s">
-        <v>300</v>
+        <v>50</v>
+      </c>
+      <c r="B99" t="n">
+        <v>17.31999969482422</v>
+      </c>
+      <c r="C99" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="D99" t="n">
+        <v>7.680000305175781</v>
+      </c>
+      <c r="E99" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>61</v>
-      </c>
-      <c r="B100" t="s">
-        <v>301</v>
+        <v>96</v>
+      </c>
+      <c r="B100" t="n">
+        <v>131.75</v>
+      </c>
+      <c r="C100" t="n">
+        <v>150.7899932861328</v>
+      </c>
+      <c r="D100" t="n">
+        <v>19.039993286132812</v>
+      </c>
+      <c r="E100" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>62</v>
-      </c>
-      <c r="B101" t="s">
-        <v>302</v>
+        <v>51</v>
+      </c>
+      <c r="B101" t="n">
+        <v>32.025001525878906</v>
+      </c>
+      <c r="C101" t="n">
+        <v>35.130001068115234</v>
+      </c>
+      <c r="D101" t="n">
+        <v>3.104999542236328</v>
+      </c>
+      <c r="E101" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>63</v>
-      </c>
-      <c r="B102" t="s">
-        <v>303</v>
+        <v>53</v>
+      </c>
+      <c r="E102" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>64</v>
-      </c>
-      <c r="B103" t="s">
-        <v>304</v>
+        <v>111</v>
+      </c>
+      <c r="B103" t="n">
+        <v>42.43000030517578</v>
+      </c>
+      <c r="C103" t="n">
+        <v>35.810001373291016</v>
+      </c>
+      <c r="D103" t="n">
+        <v>-6.619998931884766</v>
+      </c>
+      <c r="E103" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>65</v>
-      </c>
-      <c r="B104" t="s">
-        <v>305</v>
+        <v>52</v>
+      </c>
+      <c r="B104" t="n">
+        <v>21.954999923706055</v>
+      </c>
+      <c r="C104" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D104" t="n">
+        <v>-1.9549999237060547</v>
+      </c>
+      <c r="E104" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>66</v>
-      </c>
-      <c r="B105" t="s">
-        <v>306</v>
+        <v>151</v>
+      </c>
+      <c r="B105" t="n">
+        <v>32.220001220703125</v>
+      </c>
+      <c r="C105" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="D105" t="n">
+        <v>-7.470001220703125</v>
+      </c>
+      <c r="E105" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>67</v>
-      </c>
-      <c r="B106" t="s">
-        <v>307</v>
+        <v>193</v>
+      </c>
+      <c r="B106" t="n">
+        <v>48.8849983215332</v>
+      </c>
+      <c r="C106" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1.6150016784667969</v>
+      </c>
+      <c r="E106" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>68</v>
-      </c>
-      <c r="B107" t="s">
-        <v>308</v>
+        <v>178</v>
+      </c>
+      <c r="B107" t="n">
+        <v>21.059999465942383</v>
+      </c>
+      <c r="C107" t="n">
+        <v>16.299999237060547</v>
+      </c>
+      <c r="D107" t="n">
+        <v>-4.760000228881836</v>
+      </c>
+      <c r="E107" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>69</v>
-      </c>
-      <c r="B108" t="s">
-        <v>309</v>
+        <v>98</v>
+      </c>
+      <c r="B108" t="n">
+        <v>95.73500061035156</v>
+      </c>
+      <c r="C108" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>-1.7350006103515625</v>
+      </c>
+      <c r="E108" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>70</v>
-      </c>
-      <c r="B109" t="s">
-        <v>310</v>
+        <v>54</v>
+      </c>
+      <c r="B109" t="n">
+        <v>183.5050048828125</v>
+      </c>
+      <c r="C109" t="n">
+        <v>201.25</v>
+      </c>
+      <c r="D109" t="n">
+        <v>17.7449951171875</v>
+      </c>
+      <c r="E109" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>71</v>
-      </c>
-      <c r="B110" t="s">
-        <v>311</v>
+        <v>55</v>
+      </c>
+      <c r="B110" t="n">
+        <v>47.94499969482422</v>
+      </c>
+      <c r="C110" t="n">
+        <v>62.79999923706055</v>
+      </c>
+      <c r="D110" t="n">
+        <v>14.854999542236328</v>
+      </c>
+      <c r="E110" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>72</v>
-      </c>
-      <c r="B111" t="s">
-        <v>312</v>
+        <v>56</v>
+      </c>
+      <c r="B111" t="n">
+        <v>118.25499725341797</v>
+      </c>
+      <c r="C111" t="n">
+        <v>129.2899932861328</v>
+      </c>
+      <c r="D111" t="n">
+        <v>11.034996032714844</v>
+      </c>
+      <c r="E111" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>73</v>
-      </c>
-      <c r="B112" t="s">
-        <v>313</v>
+        <v>57</v>
+      </c>
+      <c r="B112" t="n">
+        <v>49.510501861572266</v>
+      </c>
+      <c r="C112" t="n">
+        <v>53.16999816894531</v>
+      </c>
+      <c r="D112" t="n">
+        <v>3.659496307373047</v>
+      </c>
+      <c r="E112" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>74</v>
-      </c>
-      <c r="B113" t="s">
-        <v>314</v>
+        <v>59</v>
+      </c>
+      <c r="B113" t="n">
+        <v>26.969999313354492</v>
+      </c>
+      <c r="C113" t="n">
+        <v>25.649999618530273</v>
+      </c>
+      <c r="D113" t="n">
+        <v>-1.3199996948242188</v>
+      </c>
+      <c r="E113" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>75</v>
-      </c>
-      <c r="B114" t="s">
-        <v>315</v>
+        <v>177</v>
+      </c>
+      <c r="B114" t="n">
+        <v>84.66999816894531</v>
+      </c>
+      <c r="C114" t="n">
+        <v>96.52999877929688</v>
+      </c>
+      <c r="D114" t="n">
+        <v>11.860000610351562</v>
+      </c>
+      <c r="E114" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>76</v>
-      </c>
-      <c r="B115" t="s">
-        <v>316</v>
+        <v>58</v>
+      </c>
+      <c r="B115" t="n">
+        <v>218.33999633789062</v>
+      </c>
+      <c r="C115" t="n">
+        <v>241.2100067138672</v>
+      </c>
+      <c r="D115" t="n">
+        <v>22.870010375976562</v>
+      </c>
+      <c r="E115" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>77</v>
-      </c>
-      <c r="B116" t="s">
-        <v>317</v>
+        <v>60</v>
+      </c>
+      <c r="B116" t="n">
+        <v>501.8547058105469</v>
+      </c>
+      <c r="C116" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="D116" t="n">
+        <v>-251.85470581054688</v>
+      </c>
+      <c r="E116" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>78</v>
-      </c>
-      <c r="B117" t="s">
-        <v>318</v>
+        <v>144</v>
+      </c>
+      <c r="B117" t="n">
+        <v>67.61000061035156</v>
+      </c>
+      <c r="C117" t="n">
+        <v>30.6299991607666</v>
+      </c>
+      <c r="D117" t="n">
+        <v>-36.980003356933594</v>
+      </c>
+      <c r="E117" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>79</v>
-      </c>
-      <c r="B118" t="s">
-        <v>319</v>
+        <v>134</v>
+      </c>
+      <c r="E118" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>80</v>
-      </c>
-      <c r="B119" t="s">
-        <v>320</v>
+        <v>143</v>
+      </c>
+      <c r="B119" t="n">
+        <v>62.459999084472656</v>
+      </c>
+      <c r="C119" t="n">
+        <v>80.88999938964844</v>
+      </c>
+      <c r="D119" t="n">
+        <v>18.43000030517578</v>
+      </c>
+      <c r="E119" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>81</v>
-      </c>
-      <c r="B120" t="s">
-        <v>321</v>
+        <v>62</v>
+      </c>
+      <c r="B120" t="n">
+        <v>78.08039855957031</v>
+      </c>
+      <c r="C120" t="n">
+        <v>72.5999984741211</v>
+      </c>
+      <c r="D120" t="n">
+        <v>-5.480400085449219</v>
+      </c>
+      <c r="E120" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>82</v>
-      </c>
-      <c r="B121" t="s">
-        <v>322</v>
+        <v>160</v>
+      </c>
+      <c r="B121" t="n">
+        <v>58.209999084472656</v>
+      </c>
+      <c r="C121" t="n">
+        <v>44.91999816894531</v>
+      </c>
+      <c r="D121" t="n">
+        <v>-13.290000915527344</v>
+      </c>
+      <c r="E121" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>83</v>
-      </c>
-      <c r="B122" t="s">
-        <v>323</v>
+        <v>139</v>
+      </c>
+      <c r="B122" t="n">
+        <v>63.959999084472656</v>
+      </c>
+      <c r="C122" t="n">
+        <v>42.63999938964844</v>
+      </c>
+      <c r="D122" t="n">
+        <v>-21.31999969482422</v>
+      </c>
+      <c r="E122" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>84</v>
-      </c>
-      <c r="B123" t="s">
-        <v>324</v>
+        <v>102</v>
+      </c>
+      <c r="B123" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="C123" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E123" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>85</v>
-      </c>
-      <c r="B124" t="s">
-        <v>325</v>
+        <v>156</v>
+      </c>
+      <c r="B124" t="n">
+        <v>53.650001525878906</v>
+      </c>
+      <c r="C124" t="n">
+        <v>48.16999816894531</v>
+      </c>
+      <c r="D124" t="n">
+        <v>-5.480003356933594</v>
+      </c>
+      <c r="E124" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>86</v>
-      </c>
-      <c r="B125" t="s">
-        <v>326</v>
+        <v>152</v>
+      </c>
+      <c r="B125" t="n">
+        <v>255.94000244140625</v>
+      </c>
+      <c r="C125" t="n">
+        <v>242.47999572753906</v>
+      </c>
+      <c r="D125" t="n">
+        <v>-13.460006713867188</v>
+      </c>
+      <c r="E125" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>87</v>
-      </c>
-      <c r="B126" t="s">
-        <v>327</v>
+        <v>64</v>
+      </c>
+      <c r="B126" t="n">
+        <v>76.04000091552734</v>
+      </c>
+      <c r="C126" t="n">
+        <v>66.87999725341797</v>
+      </c>
+      <c r="D126" t="n">
+        <v>-9.160003662109375</v>
+      </c>
+      <c r="E126" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>88</v>
-      </c>
-      <c r="B127" t="s">
-        <v>328</v>
+        <v>148</v>
+      </c>
+      <c r="B127" t="n">
+        <v>51.529998779296875</v>
+      </c>
+      <c r="C127" t="n">
+        <v>58.279998779296875</v>
+      </c>
+      <c r="D127" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="E127" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>89</v>
-      </c>
-      <c r="B128" t="s">
-        <v>329</v>
+        <v>65</v>
+      </c>
+      <c r="E128" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>90</v>
-      </c>
-      <c r="B129" t="s">
-        <v>330</v>
+        <v>63</v>
+      </c>
+      <c r="B129" t="n">
+        <v>22.920000076293945</v>
+      </c>
+      <c r="C129" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="D129" t="n">
+        <v>2.5799999237060547</v>
+      </c>
+      <c r="E129" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>91</v>
-      </c>
-      <c r="B130" t="s">
-        <v>331</v>
+        <v>162</v>
+      </c>
+      <c r="B130" t="n">
+        <v>9.414999961853027</v>
+      </c>
+      <c r="C130" t="n">
+        <v>17.299999237060547</v>
+      </c>
+      <c r="D130" t="n">
+        <v>7.8849992752075195</v>
+      </c>
+      <c r="E130" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>92</v>
-      </c>
-      <c r="B131" t="s">
-        <v>332</v>
+        <v>167</v>
+      </c>
+      <c r="B131" t="n">
+        <v>17.975000381469727</v>
+      </c>
+      <c r="C131" t="n">
+        <v>17.079999923706055</v>
+      </c>
+      <c r="D131" t="n">
+        <v>-0.8950004577636719</v>
+      </c>
+      <c r="E131" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>93</v>
-      </c>
-      <c r="B132" t="s">
-        <v>333</v>
+        <v>66</v>
+      </c>
+      <c r="B132" t="n">
+        <v>39.1338005065918</v>
+      </c>
+      <c r="C132" t="n">
+        <v>53.33000183105469</v>
+      </c>
+      <c r="D132" t="n">
+        <v>14.19620132446289</v>
+      </c>
+      <c r="E132" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>94</v>
-      </c>
-      <c r="B133" t="s">
-        <v>334</v>
+        <v>150</v>
+      </c>
+      <c r="B133" t="n">
+        <v>63.3849983215332</v>
+      </c>
+      <c r="C133" t="n">
+        <v>66.86000061035156</v>
+      </c>
+      <c r="D133" t="n">
+        <v>3.4750022888183594</v>
+      </c>
+      <c r="E133" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>95</v>
-      </c>
-      <c r="B134" t="s">
+        <v>67</v>
+      </c>
+      <c r="B134" t="n">
+        <v>52.31999969482422</v>
+      </c>
+      <c r="C134" t="n">
+        <v>97.83000183105469</v>
+      </c>
+      <c r="D134" t="n">
+        <v>45.51000213623047</v>
+      </c>
+      <c r="E134" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>187</v>
+      </c>
+      <c r="B135" t="n">
+        <v>35.349998474121094</v>
+      </c>
+      <c r="C135" t="n">
+        <v>18.399999618530273</v>
+      </c>
+      <c r="D135" t="n">
+        <v>-16.94999885559082</v>
+      </c>
+      <c r="E135" t="s">
         <v>335</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>108</v>
+      </c>
+      <c r="B136" t="n">
+        <v>172.7899932861328</v>
+      </c>
+      <c r="C136" t="n">
+        <v>145.08999633789062</v>
+      </c>
+      <c r="D136" t="n">
+        <v>-27.699996948242188</v>
+      </c>
+      <c r="E136" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>195</v>
+      </c>
+      <c r="B137" t="n">
+        <v>6.480000019073486</v>
+      </c>
+      <c r="C137" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D137" t="n">
+        <v>10.020000457763672</v>
+      </c>
+      <c r="E137" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>176</v>
+      </c>
+      <c r="B138" t="n">
+        <v>100.41000366210938</v>
+      </c>
+      <c r="C138" t="n">
+        <v>79.93000030517578</v>
+      </c>
+      <c r="D138" t="n">
+        <v>-20.480003356933594</v>
+      </c>
+      <c r="E138" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>188</v>
+      </c>
+      <c r="B139" t="n">
+        <v>37.62580108642578</v>
+      </c>
+      <c r="C139" t="n">
+        <v>41.790000915527344</v>
+      </c>
+      <c r="D139" t="n">
+        <v>4.1641998291015625</v>
+      </c>
+      <c r="E139" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>68</v>
+      </c>
+      <c r="B140" t="n">
+        <v>54.15999984741211</v>
+      </c>
+      <c r="C140" t="n">
+        <v>39.11000061035156</v>
+      </c>
+      <c r="D140" t="n">
+        <v>-15.049999237060547</v>
+      </c>
+      <c r="E140" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>107</v>
+      </c>
+      <c r="B141" t="n">
+        <v>159.7899932861328</v>
+      </c>
+      <c r="C141" t="n">
+        <v>153.3800048828125</v>
+      </c>
+      <c r="D141" t="n">
+        <v>-6.4099884033203125</v>
+      </c>
+      <c r="E141" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>70</v>
+      </c>
+      <c r="B142" t="n">
+        <v>61.310001373291016</v>
+      </c>
+      <c r="C142" t="n">
+        <v>60.66999816894531</v>
+      </c>
+      <c r="D142" t="n">
+        <v>-0.6400032043457031</v>
+      </c>
+      <c r="E142" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>186</v>
+      </c>
+      <c r="B143" t="n">
+        <v>13.880000114440918</v>
+      </c>
+      <c r="C143" t="n">
+        <v>15.550000190734863</v>
+      </c>
+      <c r="D143" t="n">
+        <v>1.6700000762939453</v>
+      </c>
+      <c r="E143" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>131</v>
+      </c>
+      <c r="B144" t="n">
+        <v>13.824999809265137</v>
+      </c>
+      <c r="C144" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="D144" t="n">
+        <v>4.175000190734863</v>
+      </c>
+      <c r="E144" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>154</v>
+      </c>
+      <c r="B145" t="n">
+        <v>81.0469970703125</v>
+      </c>
+      <c r="C145" t="n">
+        <v>80.58000183105469</v>
+      </c>
+      <c r="D145" t="n">
+        <v>-0.4669952392578125</v>
+      </c>
+      <c r="E145" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>71</v>
+      </c>
+      <c r="B146" t="n">
+        <v>155.69500732421875</v>
+      </c>
+      <c r="C146" t="n">
+        <v>146.2899932861328</v>
+      </c>
+      <c r="D146" t="n">
+        <v>-9.405014038085938</v>
+      </c>
+      <c r="E146" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>123</v>
+      </c>
+      <c r="B147" t="n">
+        <v>157.66000366210938</v>
+      </c>
+      <c r="C147" t="n">
+        <v>164.92999267578125</v>
+      </c>
+      <c r="D147" t="n">
+        <v>7.269989013671875</v>
+      </c>
+      <c r="E147" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>72</v>
+      </c>
+      <c r="B148" t="n">
+        <v>72.41999816894531</v>
+      </c>
+      <c r="C148" t="n">
+        <v>69.58000183105469</v>
+      </c>
+      <c r="D148" t="n">
+        <v>-2.839996337890625</v>
+      </c>
+      <c r="E148" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>74</v>
+      </c>
+      <c r="E149" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>75</v>
+      </c>
+      <c r="B150" t="n">
+        <v>44.06999969482422</v>
+      </c>
+      <c r="C150" t="n">
+        <v>50.400001525878906</v>
+      </c>
+      <c r="D150" t="n">
+        <v>6.3300018310546875</v>
+      </c>
+      <c r="E150" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>157</v>
+      </c>
+      <c r="B151" t="n">
+        <v>85.01370239257812</v>
+      </c>
+      <c r="C151" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="D151" t="n">
+        <v>-6.513702392578125</v>
+      </c>
+      <c r="E151" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>103</v>
+      </c>
+      <c r="B152" t="n">
+        <v>23.22010040283203</v>
+      </c>
+      <c r="C152" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="D152" t="n">
+        <v>-15.720100402832031</v>
+      </c>
+      <c r="E152" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>191</v>
+      </c>
+      <c r="B153" t="n">
+        <v>412.3096008300781</v>
+      </c>
+      <c r="C153" t="n">
+        <v>295.5199890136719</v>
+      </c>
+      <c r="D153" t="n">
+        <v>-116.78961181640625</v>
+      </c>
+      <c r="E153" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>109</v>
+      </c>
+      <c r="B154" t="n">
+        <v>98.12809753417969</v>
+      </c>
+      <c r="C154" t="n">
+        <v>70.2699966430664</v>
+      </c>
+      <c r="D154" t="n">
+        <v>-27.85810089111328</v>
+      </c>
+      <c r="E154" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>120</v>
+      </c>
+      <c r="B155" t="n">
+        <v>211.9250030517578</v>
+      </c>
+      <c r="C155" t="n">
+        <v>207.1300048828125</v>
+      </c>
+      <c r="D155" t="n">
+        <v>-4.7949981689453125</v>
+      </c>
+      <c r="E155" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>145</v>
+      </c>
+      <c r="B156" t="n">
+        <v>356.5860900878906</v>
+      </c>
+      <c r="C156" t="n">
+        <v>262.8800048828125</v>
+      </c>
+      <c r="D156" t="n">
+        <v>-93.70608520507812</v>
+      </c>
+      <c r="E156" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>130</v>
+      </c>
+      <c r="B157" t="n">
+        <v>6.650000095367432</v>
+      </c>
+      <c r="C157" t="n">
+        <v>10.3100004196167</v>
+      </c>
+      <c r="D157" t="n">
+        <v>3.6600003242492676</v>
+      </c>
+      <c r="E157" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>170</v>
+      </c>
+      <c r="E158" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>79</v>
+      </c>
+      <c r="B159" t="n">
+        <v>64.61720275878906</v>
+      </c>
+      <c r="C159" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="D159" t="n">
+        <v>-9.617202758789062</v>
+      </c>
+      <c r="E159" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>80</v>
+      </c>
+      <c r="B160" t="n">
+        <v>6.960000038146973</v>
+      </c>
+      <c r="C160" t="n">
+        <v>2.700000047683716</v>
+      </c>
+      <c r="D160" t="n">
+        <v>-4.260000228881836</v>
+      </c>
+      <c r="E160" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>116</v>
+      </c>
+      <c r="B161" t="n">
+        <v>131.05999755859375</v>
+      </c>
+      <c r="C161" t="n">
+        <v>111.0</v>
+      </c>
+      <c r="D161" t="n">
+        <v>-20.05999755859375</v>
+      </c>
+      <c r="E161" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>184</v>
+      </c>
+      <c r="B162" t="n">
+        <v>24.905000686645508</v>
+      </c>
+      <c r="C162" t="n">
+        <v>25.3799991607666</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.47499847412109375</v>
+      </c>
+      <c r="E162" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>140</v>
+      </c>
+      <c r="E163" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>77</v>
+      </c>
+      <c r="B164" t="n">
+        <v>48.31999969482422</v>
+      </c>
+      <c r="C164" t="n">
+        <v>64.83000183105469</v>
+      </c>
+      <c r="D164" t="n">
+        <v>16.51000213623047</v>
+      </c>
+      <c r="E164" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>149</v>
+      </c>
+      <c r="B165" t="n">
+        <v>29.860000610351562</v>
+      </c>
+      <c r="C165" t="n">
+        <v>18.610000610351562</v>
+      </c>
+      <c r="D165" t="n">
+        <v>-11.25</v>
+      </c>
+      <c r="E165" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>76</v>
+      </c>
+      <c r="B166" t="n">
+        <v>12.231100082397461</v>
+      </c>
+      <c r="C166" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="D166" t="n">
+        <v>1.768899917602539</v>
+      </c>
+      <c r="E166" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>169</v>
+      </c>
+      <c r="B167" t="n">
+        <v>58.939998626708984</v>
+      </c>
+      <c r="C167" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.060001373291015625</v>
+      </c>
+      <c r="E167" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>129</v>
+      </c>
+      <c r="B168" t="n">
+        <v>36.279998779296875</v>
+      </c>
+      <c r="C168" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="D168" t="n">
+        <v>4.720001220703125</v>
+      </c>
+      <c r="E168" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>78</v>
+      </c>
+      <c r="B169" t="n">
+        <v>28.81999969482422</v>
+      </c>
+      <c r="C169" t="n">
+        <v>31.040000915527344</v>
+      </c>
+      <c r="D169" t="n">
+        <v>2.220001220703125</v>
+      </c>
+      <c r="E169" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>81</v>
+      </c>
+      <c r="B170" t="n">
+        <v>18.450000762939453</v>
+      </c>
+      <c r="C170" t="n">
+        <v>23.389999389648438</v>
+      </c>
+      <c r="D170" t="n">
+        <v>4.939998626708984</v>
+      </c>
+      <c r="E170" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>9</v>
+      </c>
+      <c r="B171" t="n">
+        <v>198.15499877929688</v>
+      </c>
+      <c r="C171" t="n">
+        <v>184.69000244140625</v>
+      </c>
+      <c r="D171" t="n">
+        <v>-13.464996337890625</v>
+      </c>
+      <c r="E171" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>82</v>
+      </c>
+      <c r="E172" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>83</v>
+      </c>
+      <c r="B173" t="n">
+        <v>8.609999656677246</v>
+      </c>
+      <c r="C173" t="n">
+        <v>22.170000076293945</v>
+      </c>
+      <c r="D173" t="n">
+        <v>13.5600004196167</v>
+      </c>
+      <c r="E173" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>45.32500076293945</v>
+      </c>
+      <c r="C174" t="n">
+        <v>49.93000030517578</v>
+      </c>
+      <c r="D174" t="n">
+        <v>4.604999542236328</v>
+      </c>
+      <c r="E174" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>86</v>
+      </c>
+      <c r="B175" t="n">
+        <v>16.141399383544922</v>
+      </c>
+      <c r="C175" t="n">
+        <v>18.670000076293945</v>
+      </c>
+      <c r="D175" t="n">
+        <v>2.5286006927490234</v>
+      </c>
+      <c r="E175" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>84</v>
+      </c>
+      <c r="B176" t="n">
+        <v>67.87000274658203</v>
+      </c>
+      <c r="C176" t="n">
+        <v>53.83000183105469</v>
+      </c>
+      <c r="D176" t="n">
+        <v>-14.040000915527344</v>
+      </c>
+      <c r="E176" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>87</v>
+      </c>
+      <c r="B177" t="n">
+        <v>14.770000457763672</v>
+      </c>
+      <c r="C177" t="n">
+        <v>11.020000457763672</v>
+      </c>
+      <c r="D177" t="n">
+        <v>-3.75</v>
+      </c>
+      <c r="E177" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>166</v>
+      </c>
+      <c r="B178" t="n">
+        <v>27.940000534057617</v>
+      </c>
+      <c r="C178" t="n">
+        <v>25.8799991607666</v>
+      </c>
+      <c r="D178" t="n">
+        <v>-2.0600013732910156</v>
+      </c>
+      <c r="E178" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>168</v>
+      </c>
+      <c r="B179" t="n">
+        <v>835.1400146484375</v>
+      </c>
+      <c r="C179" t="n">
+        <v>450.8699951171875</v>
+      </c>
+      <c r="D179" t="n">
+        <v>-384.27001953125</v>
+      </c>
+      <c r="E179" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>85</v>
+      </c>
+      <c r="B180" t="n">
+        <v>64.90499877929688</v>
+      </c>
+      <c r="C180" t="n">
+        <v>75.63999938964844</v>
+      </c>
+      <c r="D180" t="n">
+        <v>10.735000610351562</v>
+      </c>
+      <c r="E180" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>100</v>
+      </c>
+      <c r="B181" t="n">
+        <v>173.9199981689453</v>
+      </c>
+      <c r="C181" t="n">
+        <v>116.25</v>
+      </c>
+      <c r="D181" t="n">
+        <v>-57.66999816894531</v>
+      </c>
+      <c r="E181" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>88</v>
+      </c>
+      <c r="B182" t="n">
+        <v>9.15939998626709</v>
+      </c>
+      <c r="C182" t="n">
+        <v>7.929999828338623</v>
+      </c>
+      <c r="D182" t="n">
+        <v>-1.2294001579284668</v>
+      </c>
+      <c r="E182" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>106</v>
+      </c>
+      <c r="B183" t="n">
+        <v>37.040000915527344</v>
+      </c>
+      <c r="C183" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="D183" t="n">
+        <v>-18.040000915527344</v>
+      </c>
+      <c r="E183" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>185</v>
+      </c>
+      <c r="B184" t="n">
+        <v>28.450000762939453</v>
+      </c>
+      <c r="C184" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="D184" t="n">
+        <v>3.049999237060547</v>
+      </c>
+      <c r="E184" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>182</v>
+      </c>
+      <c r="B185" t="n">
+        <v>33.36759948730469</v>
+      </c>
+      <c r="C185" t="n">
+        <v>34.97999954223633</v>
+      </c>
+      <c r="D185" t="n">
+        <v>1.6124000549316406</v>
+      </c>
+      <c r="E185" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>110</v>
+      </c>
+      <c r="B186" t="n">
+        <v>181.11000061035156</v>
+      </c>
+      <c r="C186" t="n">
+        <v>207.3800048828125</v>
+      </c>
+      <c r="D186" t="n">
+        <v>26.270004272460938</v>
+      </c>
+      <c r="E186" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>183</v>
+      </c>
+      <c r="B187" t="n">
+        <v>147.9499969482422</v>
+      </c>
+      <c r="C187" t="n">
+        <v>162.41000366210938</v>
+      </c>
+      <c r="D187" t="n">
+        <v>14.460006713867188</v>
+      </c>
+      <c r="E187" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>91</v>
+      </c>
+      <c r="B188" t="n">
+        <v>112.66000366210938</v>
+      </c>
+      <c r="C188" t="n">
+        <v>106.12000274658203</v>
+      </c>
+      <c r="D188" t="n">
+        <v>-6.540000915527344</v>
+      </c>
+      <c r="E188" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>92</v>
+      </c>
+      <c r="B189" t="n">
+        <v>46.95500183105469</v>
+      </c>
+      <c r="C189" t="n">
+        <v>48.11000061035156</v>
+      </c>
+      <c r="D189" t="n">
+        <v>1.154998779296875</v>
+      </c>
+      <c r="E189" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>89</v>
+      </c>
+      <c r="B190" t="n">
+        <v>157.91000366210938</v>
+      </c>
+      <c r="C190" t="n">
+        <v>166.3000030517578</v>
+      </c>
+      <c r="D190" t="n">
+        <v>8.389999389648438</v>
+      </c>
+      <c r="E190" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>93</v>
+      </c>
+      <c r="B191" t="n">
+        <v>343.7550048828125</v>
+      </c>
+      <c r="C191" t="n">
+        <v>487.20001220703125</v>
+      </c>
+      <c r="D191" t="n">
+        <v>143.44500732421875</v>
+      </c>
+      <c r="E191" t="s">
+        <v>391</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>